--- a/natmiOut/OldD4/LR-pairs_lrc2p/Fgf1-Cd44.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Fgf1-Cd44.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.18522718993076</v>
+        <v>1.384145666666667</v>
       </c>
       <c r="H2">
-        <v>1.18522718993076</v>
+        <v>4.152437</v>
       </c>
       <c r="I2">
-        <v>0.08914080736474672</v>
+        <v>0.1014617184198512</v>
       </c>
       <c r="J2">
-        <v>0.08914080736474672</v>
+        <v>0.1334061399754118</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.2438410521799</v>
+        <v>21.084959</v>
       </c>
       <c r="N2">
-        <v>17.2438410521799</v>
+        <v>63.25487699999999</v>
       </c>
       <c r="O2">
-        <v>0.03080995087263063</v>
+        <v>0.03381320693734752</v>
       </c>
       <c r="P2">
-        <v>0.03080995087263063</v>
+        <v>0.03509122472428063</v>
       </c>
       <c r="Q2">
-        <v>20.43786927388786</v>
+        <v>29.18465463169433</v>
       </c>
       <c r="R2">
-        <v>20.43786927388786</v>
+        <v>262.661891685249</v>
       </c>
       <c r="S2">
-        <v>0.002746423895654477</v>
+        <v>0.003430746081149312</v>
       </c>
       <c r="T2">
-        <v>0.002746423895654477</v>
+        <v>0.004681384837476012</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.18522718993076</v>
+        <v>1.384145666666667</v>
       </c>
       <c r="H3">
-        <v>1.18522718993076</v>
+        <v>4.152437</v>
       </c>
       <c r="I3">
-        <v>0.08914080736474672</v>
+        <v>0.1014617184198512</v>
       </c>
       <c r="J3">
-        <v>0.08914080736474672</v>
+        <v>0.1334061399754118</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>76.8272512362666</v>
+        <v>81.06331633333333</v>
       </c>
       <c r="N3">
-        <v>76.8272512362666</v>
+        <v>243.189949</v>
       </c>
       <c r="O3">
-        <v>0.1372689431029865</v>
+        <v>0.12999838843446</v>
       </c>
       <c r="P3">
-        <v>0.1372689431029865</v>
+        <v>0.1349118606466557</v>
       </c>
       <c r="Q3">
-        <v>91.05774709286477</v>
+        <v>112.2034380284126</v>
       </c>
       <c r="R3">
-        <v>91.05774709286477</v>
+        <v>1009.830942255713</v>
       </c>
       <c r="S3">
-        <v>0.01223626441430569</v>
+        <v>0.01318985988237162</v>
       </c>
       <c r="T3">
-        <v>0.01223626441430569</v>
+        <v>0.01799807056577099</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.18522718993076</v>
+        <v>1.384145666666667</v>
       </c>
       <c r="H4">
-        <v>1.18522718993076</v>
+        <v>4.152437</v>
       </c>
       <c r="I4">
-        <v>0.08914080736474672</v>
+        <v>0.1014617184198512</v>
       </c>
       <c r="J4">
-        <v>0.08914080736474672</v>
+        <v>0.1334061399754118</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>131.584602902164</v>
+        <v>136.9994176666667</v>
       </c>
       <c r="N4">
-        <v>131.584602902164</v>
+        <v>410.998253</v>
       </c>
       <c r="O4">
-        <v>0.2351051102096407</v>
+        <v>0.2197011461990087</v>
       </c>
       <c r="P4">
-        <v>0.2351051102096407</v>
+        <v>0.2280050605000741</v>
       </c>
       <c r="Q4">
-        <v>155.9576491358868</v>
+        <v>189.6271502991735</v>
       </c>
       <c r="R4">
-        <v>155.9576491358868</v>
+        <v>1706.644352692561</v>
       </c>
       <c r="S4">
-        <v>0.02095745933966513</v>
+        <v>0.02229125583216238</v>
       </c>
       <c r="T4">
-        <v>0.02095745933966513</v>
+        <v>0.03041727501617511</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.18522718993076</v>
+        <v>1.384145666666667</v>
       </c>
       <c r="H5">
-        <v>1.18522718993076</v>
+        <v>4.152437</v>
       </c>
       <c r="I5">
-        <v>0.08914080736474672</v>
+        <v>0.1014617184198512</v>
       </c>
       <c r="J5">
-        <v>0.08914080736474672</v>
+        <v>0.1334061399754118</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>287.116449855948</v>
+        <v>316.292811</v>
       </c>
       <c r="N5">
-        <v>287.116449855948</v>
+        <v>948.878433</v>
       </c>
       <c r="O5">
-        <v>0.5129972891780739</v>
+        <v>0.5072276531881493</v>
       </c>
       <c r="P5">
-        <v>0.5129972891780739</v>
+        <v>0.5263990368430604</v>
       </c>
       <c r="Q5">
-        <v>340.2982230456612</v>
+        <v>437.795323743469</v>
       </c>
       <c r="R5">
-        <v>340.2982230456612</v>
+        <v>3940.157913691221</v>
       </c>
       <c r="S5">
-        <v>0.04572899253325995</v>
+        <v>0.05146418932253793</v>
       </c>
       <c r="T5">
-        <v>0.04572899253325995</v>
+        <v>0.07022486359200726</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.18522718993076</v>
+        <v>1.384145666666667</v>
       </c>
       <c r="H6">
-        <v>1.18522718993076</v>
+        <v>4.152437</v>
       </c>
       <c r="I6">
-        <v>0.08914080736474672</v>
+        <v>0.1014617184198512</v>
       </c>
       <c r="J6">
-        <v>0.08914080736474672</v>
+        <v>0.1334061399754118</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>46.9120012692379</v>
+        <v>68.131198</v>
       </c>
       <c r="N6">
-        <v>46.9120012692379</v>
+        <v>136.262396</v>
       </c>
       <c r="O6">
-        <v>0.08381870663666834</v>
+        <v>0.1092596052410345</v>
       </c>
       <c r="P6">
-        <v>0.08381870663666834</v>
+        <v>0.07559281728592908</v>
       </c>
       <c r="Q6">
-        <v>55.60137943836708</v>
+        <v>94.30350247650867</v>
       </c>
       <c r="R6">
-        <v>55.60137943836708</v>
+        <v>565.821014859052</v>
       </c>
       <c r="S6">
-        <v>0.00747166718186147</v>
+        <v>0.01108566730162994</v>
       </c>
       <c r="T6">
-        <v>0.00747166718186147</v>
+        <v>0.01008454596398238</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.36933920805411</v>
+        <v>2.458038666666667</v>
       </c>
       <c r="H7">
-        <v>2.36933920805411</v>
+        <v>7.374116000000001</v>
       </c>
       <c r="I7">
-        <v>0.1781977427797884</v>
+        <v>0.1801810554109116</v>
       </c>
       <c r="J7">
-        <v>0.1781977427797884</v>
+        <v>0.2369096391566985</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>17.2438410521799</v>
+        <v>21.084959</v>
       </c>
       <c r="N7">
-        <v>17.2438410521799</v>
+        <v>63.25487699999999</v>
       </c>
       <c r="O7">
-        <v>0.03080995087263063</v>
+        <v>0.03381320693734752</v>
       </c>
       <c r="P7">
-        <v>0.03080995087263063</v>
+        <v>0.03509122472428063</v>
       </c>
       <c r="Q7">
-        <v>40.85650870238288</v>
+        <v>51.82764450708133</v>
       </c>
       <c r="R7">
-        <v>40.85650870238288</v>
+        <v>466.448800563732</v>
       </c>
       <c r="S7">
-        <v>0.00549026370065895</v>
+        <v>0.006092499312798832</v>
       </c>
       <c r="T7">
-        <v>0.00549026370065895</v>
+        <v>0.008313449386995941</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.36933920805411</v>
+        <v>2.458038666666667</v>
       </c>
       <c r="H8">
-        <v>2.36933920805411</v>
+        <v>7.374116000000001</v>
       </c>
       <c r="I8">
-        <v>0.1781977427797884</v>
+        <v>0.1801810554109116</v>
       </c>
       <c r="J8">
-        <v>0.1781977427797884</v>
+        <v>0.2369096391566985</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>76.8272512362666</v>
+        <v>81.06331633333333</v>
       </c>
       <c r="N8">
-        <v>76.8272512362666</v>
+        <v>243.189949</v>
       </c>
       <c r="O8">
-        <v>0.1372689431029865</v>
+        <v>0.12999838843446</v>
       </c>
       <c r="P8">
-        <v>0.1372689431029865</v>
+        <v>0.1349118606466557</v>
       </c>
       <c r="Q8">
-        <v>182.0298186011101</v>
+        <v>199.2567659955649</v>
       </c>
       <c r="R8">
-        <v>182.0298186011101</v>
+        <v>1793.310893960084</v>
       </c>
       <c r="S8">
-        <v>0.02446101581471939</v>
+        <v>0.02342324682983864</v>
       </c>
       <c r="T8">
-        <v>0.02446101581471939</v>
+        <v>0.03196192022375799</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.36933920805411</v>
+        <v>2.458038666666667</v>
       </c>
       <c r="H9">
-        <v>2.36933920805411</v>
+        <v>7.374116000000001</v>
       </c>
       <c r="I9">
-        <v>0.1781977427797884</v>
+        <v>0.1801810554109116</v>
       </c>
       <c r="J9">
-        <v>0.1781977427797884</v>
+        <v>0.2369096391566985</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>131.584602902164</v>
+        <v>136.9994176666667</v>
       </c>
       <c r="N9">
-        <v>131.584602902164</v>
+        <v>410.998253</v>
       </c>
       <c r="O9">
-        <v>0.2351051102096407</v>
+        <v>0.2197011461990087</v>
       </c>
       <c r="P9">
-        <v>0.2351051102096407</v>
+        <v>0.2280050605000741</v>
       </c>
       <c r="Q9">
-        <v>311.7685588323278</v>
+        <v>336.7498659354831</v>
       </c>
       <c r="R9">
-        <v>311.7685588323278</v>
+        <v>3030.748793419348</v>
       </c>
       <c r="S9">
-        <v>0.04189519995535136</v>
+        <v>0.03958598439712437</v>
       </c>
       <c r="T9">
-        <v>0.04189519995535136</v>
+        <v>0.05401659660897377</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.36933920805411</v>
+        <v>2.458038666666667</v>
       </c>
       <c r="H10">
-        <v>2.36933920805411</v>
+        <v>7.374116000000001</v>
       </c>
       <c r="I10">
-        <v>0.1781977427797884</v>
+        <v>0.1801810554109116</v>
       </c>
       <c r="J10">
-        <v>0.1781977427797884</v>
+        <v>0.2369096391566985</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>287.116449855948</v>
+        <v>316.292811</v>
       </c>
       <c r="N10">
-        <v>287.116449855948</v>
+        <v>948.878433</v>
       </c>
       <c r="O10">
-        <v>0.5129972891780739</v>
+        <v>0.5072276531881493</v>
       </c>
       <c r="P10">
-        <v>0.5129972891780739</v>
+        <v>0.5263990368430604</v>
       </c>
       <c r="Q10">
-        <v>680.2762619209994</v>
+        <v>777.459959426692</v>
       </c>
       <c r="R10">
-        <v>680.2762619209994</v>
+        <v>6997.139634840229</v>
       </c>
       <c r="S10">
-        <v>0.09141495898368313</v>
+        <v>0.09139281388504057</v>
       </c>
       <c r="T10">
-        <v>0.09141495898368313</v>
+        <v>0.1247090058709231</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.36933920805411</v>
+        <v>2.458038666666667</v>
       </c>
       <c r="H11">
-        <v>2.36933920805411</v>
+        <v>7.374116000000001</v>
       </c>
       <c r="I11">
-        <v>0.1781977427797884</v>
+        <v>0.1801810554109116</v>
       </c>
       <c r="J11">
-        <v>0.1781977427797884</v>
+        <v>0.2369096391566985</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>46.9120012692379</v>
+        <v>68.131198</v>
       </c>
       <c r="N11">
-        <v>46.9120012692379</v>
+        <v>136.262396</v>
       </c>
       <c r="O11">
-        <v>0.08381870663666834</v>
+        <v>0.1092596052410345</v>
       </c>
       <c r="P11">
-        <v>0.08381870663666834</v>
+        <v>0.07559281728592908</v>
       </c>
       <c r="Q11">
-        <v>111.1504439354895</v>
+        <v>167.4691190903227</v>
       </c>
       <c r="R11">
-        <v>111.1504439354895</v>
+        <v>1004.814714541936</v>
       </c>
       <c r="S11">
-        <v>0.01493630432537557</v>
+        <v>0.01968651098610916</v>
       </c>
       <c r="T11">
-        <v>0.01493630432537557</v>
+        <v>0.0179086670660477</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>9.741557172907219</v>
+        <v>9.799863999999999</v>
       </c>
       <c r="H12">
-        <v>9.741557172907219</v>
+        <v>19.599728</v>
       </c>
       <c r="I12">
-        <v>0.7326614498554649</v>
+        <v>0.7183572261692373</v>
       </c>
       <c r="J12">
-        <v>0.7326614498554649</v>
+        <v>0.6296842208678898</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>17.2438410521799</v>
+        <v>21.084959</v>
       </c>
       <c r="N12">
-        <v>17.2438410521799</v>
+        <v>63.25487699999999</v>
       </c>
       <c r="O12">
-        <v>0.03080995087263063</v>
+        <v>0.03381320693734752</v>
       </c>
       <c r="P12">
-        <v>0.03080995087263063</v>
+        <v>0.03509122472428063</v>
       </c>
       <c r="Q12">
-        <v>167.9818634903351</v>
+        <v>206.629730645576</v>
       </c>
       <c r="R12">
-        <v>167.9818634903351</v>
+        <v>1239.778383873456</v>
       </c>
       <c r="S12">
-        <v>0.0225732632763172</v>
+        <v>0.02428996154339937</v>
       </c>
       <c r="T12">
-        <v>0.0225732632763172</v>
+        <v>0.02209639049980868</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>9.741557172907219</v>
+        <v>9.799863999999999</v>
       </c>
       <c r="H13">
-        <v>9.741557172907219</v>
+        <v>19.599728</v>
       </c>
       <c r="I13">
-        <v>0.7326614498554649</v>
+        <v>0.7183572261692373</v>
       </c>
       <c r="J13">
-        <v>0.7326614498554649</v>
+        <v>0.6296842208678898</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>76.8272512362666</v>
+        <v>81.06331633333333</v>
       </c>
       <c r="N13">
-        <v>76.8272512362666</v>
+        <v>243.189949</v>
       </c>
       <c r="O13">
-        <v>0.1372689431029865</v>
+        <v>0.12999838843446</v>
       </c>
       <c r="P13">
-        <v>0.1372689431029865</v>
+        <v>0.1349118606466557</v>
       </c>
       <c r="Q13">
-        <v>748.417060355398</v>
+        <v>794.4094754556453</v>
       </c>
       <c r="R13">
-        <v>748.417060355398</v>
+        <v>4766.456852733872</v>
       </c>
       <c r="S13">
-        <v>0.1005716628739614</v>
+        <v>0.09338528172224973</v>
       </c>
       <c r="T13">
-        <v>0.1005716628739614</v>
+        <v>0.08495186985712669</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>25</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>9.741557172907219</v>
+        <v>9.799863999999999</v>
       </c>
       <c r="H14">
-        <v>9.741557172907219</v>
+        <v>19.599728</v>
       </c>
       <c r="I14">
-        <v>0.7326614498554649</v>
+        <v>0.7183572261692373</v>
       </c>
       <c r="J14">
-        <v>0.7326614498554649</v>
+        <v>0.6296842208678898</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>131.584602902164</v>
+        <v>136.9994176666667</v>
       </c>
       <c r="N14">
-        <v>131.584602902164</v>
+        <v>410.998253</v>
       </c>
       <c r="O14">
-        <v>0.2351051102096407</v>
+        <v>0.2197011461990087</v>
       </c>
       <c r="P14">
-        <v>0.2351051102096407</v>
+        <v>0.2280050605000741</v>
       </c>
       <c r="Q14">
-        <v>1281.838932245724</v>
+        <v>1342.575661212531</v>
       </c>
       <c r="R14">
-        <v>1281.838932245724</v>
+        <v>8055.453967275183</v>
       </c>
       <c r="S14">
-        <v>0.1722524509146242</v>
+        <v>0.1578239059697219</v>
       </c>
       <c r="T14">
-        <v>0.1722524509146242</v>
+        <v>0.1435711888749252</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>26</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>9.741557172907219</v>
+        <v>9.799863999999999</v>
       </c>
       <c r="H15">
-        <v>9.741557172907219</v>
+        <v>19.599728</v>
       </c>
       <c r="I15">
-        <v>0.7326614498554649</v>
+        <v>0.7183572261692373</v>
       </c>
       <c r="J15">
-        <v>0.7326614498554649</v>
+        <v>0.6296842208678898</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>287.116449855948</v>
+        <v>316.292811</v>
       </c>
       <c r="N15">
-        <v>287.116449855948</v>
+        <v>948.878433</v>
       </c>
       <c r="O15">
-        <v>0.5129972891780739</v>
+        <v>0.5072276531881493</v>
       </c>
       <c r="P15">
-        <v>0.5129972891780739</v>
+        <v>0.5263990368430604</v>
       </c>
       <c r="Q15">
-        <v>2796.961311553866</v>
+        <v>3099.626531977704</v>
       </c>
       <c r="R15">
-        <v>2796.961311553866</v>
+        <v>18597.75919186622</v>
       </c>
       <c r="S15">
-        <v>0.3758533376611308</v>
+        <v>0.3643706499805708</v>
       </c>
       <c r="T15">
-        <v>0.3758533376611308</v>
+        <v>0.3314651673801301</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>9.741557172907219</v>
+        <v>9.799863999999999</v>
       </c>
       <c r="H16">
-        <v>9.741557172907219</v>
+        <v>19.599728</v>
       </c>
       <c r="I16">
-        <v>0.7326614498554649</v>
+        <v>0.7183572261692373</v>
       </c>
       <c r="J16">
-        <v>0.7326614498554649</v>
+        <v>0.6296842208678898</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>46.9120012692379</v>
+        <v>68.131198</v>
       </c>
       <c r="N16">
-        <v>46.9120012692379</v>
+        <v>136.262396</v>
       </c>
       <c r="O16">
-        <v>0.08381870663666834</v>
+        <v>0.1092596052410345</v>
       </c>
       <c r="P16">
-        <v>0.08381870663666834</v>
+        <v>0.07559281728592908</v>
       </c>
       <c r="Q16">
-        <v>456.995942459777</v>
+        <v>667.676474557072</v>
       </c>
       <c r="R16">
-        <v>456.995942459777</v>
+        <v>2670.705898228288</v>
       </c>
       <c r="S16">
-        <v>0.0614107351294313</v>
+        <v>0.0784874269532954</v>
       </c>
       <c r="T16">
-        <v>0.0614107351294313</v>
+        <v>0.047599604255899</v>
       </c>
     </row>
   </sheetData>
